--- a/domain3.xlsx
+++ b/domain3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="952">
   <si>
     <t>u999.v.qingcdn.com</t>
   </si>
@@ -2875,30 +2875,6 @@
   </si>
   <si>
     <t>百才招聘网</t>
-  </si>
-  <si>
-    <t>www.baidu.com</t>
-  </si>
-  <si>
-    <t>百度</t>
-  </si>
-  <si>
-    <t>loc.map.baidu.com</t>
-  </si>
-  <si>
-    <t>api.map.baidu.com</t>
-  </si>
-  <si>
-    <t>m.baidu.com</t>
-  </si>
-  <si>
-    <t>hm.baidu.com</t>
-  </si>
-  <si>
-    <t>mbd.baidu.com</t>
-  </si>
-  <si>
-    <t>r6.mo.baidu.com</t>
   </si>
 </sst>
 </file>
@@ -3223,13 +3199,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B804"/>
+  <dimension ref="A1:B797"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A771" workbookViewId="0">
-      <selection activeCell="Q784" sqref="Q784"/>
+    <sheetView tabSelected="1" topLeftCell="A699" workbookViewId="0">
+      <selection activeCell="F721" sqref="F721"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -9605,62 +9584,6 @@
       </c>
       <c r="B797" t="s">
         <v>951</v>
-      </c>
-    </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A798" t="s">
-        <v>952</v>
-      </c>
-      <c r="B798" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A799" t="s">
-        <v>954</v>
-      </c>
-      <c r="B799" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A800" t="s">
-        <v>955</v>
-      </c>
-      <c r="B800" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A801" t="s">
-        <v>956</v>
-      </c>
-      <c r="B801" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A802" t="s">
-        <v>957</v>
-      </c>
-      <c r="B802" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A803" t="s">
-        <v>958</v>
-      </c>
-      <c r="B803" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A804" t="s">
-        <v>959</v>
-      </c>
-      <c r="B804" t="s">
-        <v>953</v>
       </c>
     </row>
   </sheetData>
